--- a/municipal/ვაჭრობა/ბაზრების და ბაზრობების რაოდენობა ვაჭრობის დღეთა მიხედვით/აჭარა ა.რ/შუახევის მუნიციპალიტეტი.xlsx
+++ b/municipal/ვაჭრობა/ბაზრების და ბაზრობების რაოდენობა ვაჭრობის დღეთა მიხედვით/აჭარა ა.რ/შუახევის მუნიციპალიტეტი.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etsertsvadze\Desktop\ბაზრები - Copy\ბაზრების და ბაზრობების რაოდენობა ვაჭრობის დღეთა მიხედვით\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\მომსახურება\ბაზრები მუნიციპალიტეტები\ბ&amp;ბ რაოდენობა ვაჭრობის დღეების მიხედვით\ბაზრების და ბაზრობების რაოდენობა ვაჭრობის დღეთა მიხედვით\აჭარა ა. რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0419678F-FC0F-434A-A00C-B80AFE4BED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="9960"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="შუახევის მუნიციპალიტეტი" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="23">
   <si>
     <t>(დეკლარირებული მონაცემები, ერთეული)</t>
   </si>
@@ -86,23 +87,42 @@
     <t>ორშაბათის გარდა</t>
   </si>
   <si>
-    <t xml:space="preserve">ბაზრების და ბაზრობების რაოდენობა ვაჭრობის დღეების მიხედვით                                                                              შუახევის მუნიციპალიტეტში </t>
+    <t>…</t>
   </si>
   <si>
-    <t>-</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> „ ...“ - მონაცემი არ არის ან კონფიდენციალურია.</t>
+    </r>
   </si>
   <si>
-    <t>... - მონაცემი არ არის ან კონფიდენციალურია</t>
+    <t xml:space="preserve">ბაზრების და ბაზრობების რაოდენობა ვაჭრობის დღეების მიხედვით შუახევის მუნიციპალიტეტში </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;\-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +187,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -182,25 +210,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -217,6 +232,32 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,7 +266,18 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -236,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -244,42 +296,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -290,14 +321,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -587,18 +630,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="18" customWidth="1"/>
-    <col min="2" max="10" width="11.7109375" style="2" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="2"/>
+    <col min="1" max="1" width="26.5703125" style="11" customWidth="1"/>
+    <col min="2" max="15" width="8.7109375" style="2" customWidth="1"/>
+    <col min="16" max="256" width="9.140625" style="2"/>
     <col min="257" max="257" width="17.28515625" style="2" customWidth="1"/>
     <col min="258" max="512" width="9.140625" style="2"/>
     <col min="513" max="513" width="17.28515625" style="2" customWidth="1"/>
@@ -728,18 +769,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -769,18 +810,18 @@
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -809,1278 +850,1358 @@
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
     </row>
-    <row r="3" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7">
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="6">
         <v>2013</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2014</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2015</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2016</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>2017</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>2018</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>2019</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>2020</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>2021</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-    </row>
-    <row r="4" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="K3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2023</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+    </row>
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+    </row>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+    </row>
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+    </row>
+    <row r="17" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+    </row>
+    <row r="18" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+    </row>
+    <row r="19" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+    </row>
+    <row r="20" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+    </row>
+    <row r="21" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+    </row>
+    <row r="22" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-    </row>
-    <row r="5" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-    </row>
-    <row r="6" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-    </row>
-    <row r="7" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-    </row>
-    <row r="8" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-    </row>
-    <row r="9" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-    </row>
-    <row r="10" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-    </row>
-    <row r="11" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-    </row>
-    <row r="12" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-    </row>
-    <row r="13" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-    </row>
-    <row r="14" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-    </row>
-    <row r="15" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-    </row>
-    <row r="16" spans="1:37" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-    </row>
-    <row r="17" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-    </row>
-    <row r="18" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-    </row>
-    <row r="19" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-    </row>
-    <row r="20" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-    </row>
-    <row r="21" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-    </row>
-    <row r="22" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-    </row>
-    <row r="23" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-    </row>
-    <row r="24" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2107,19 +2228,19 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2146,19 +2267,19 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2185,19 +2306,19 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2224,19 +2345,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2263,19 +2384,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2302,19 +2423,19 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2349,7 +2470,7 @@
       <c r="AS31" s="1"/>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2396,7 +2517,7 @@
       <c r="AS32" s="1"/>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2443,7 +2564,7 @@
       <c r="AS33" s="1"/>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2490,7 +2611,7 @@
       <c r="AS34" s="1"/>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2537,7 +2658,7 @@
       <c r="AS35" s="1"/>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2584,7 +2705,7 @@
       <c r="AS36" s="1"/>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2631,7 +2752,7 @@
       <c r="AS37" s="1"/>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2678,7 +2799,7 @@
       <c r="AS38" s="1"/>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2725,7 +2846,7 @@
       <c r="AS39" s="1"/>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2772,7 +2893,7 @@
       <c r="AS40" s="1"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2819,7 +2940,7 @@
       <c r="AS41" s="1"/>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2866,7 +2987,7 @@
       <c r="AS42" s="1"/>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2913,7 +3034,7 @@
       <c r="AS43" s="1"/>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2960,7 +3081,7 @@
       <c r="AS44" s="1"/>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3007,7 +3128,7 @@
       <c r="AS45" s="1"/>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3054,7 +3175,7 @@
       <c r="AS46" s="1"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3101,7 +3222,7 @@
       <c r="AS47" s="1"/>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3148,7 +3269,7 @@
       <c r="AS48" s="1"/>
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3195,7 +3316,7 @@
       <c r="AS49" s="1"/>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3242,7 +3363,7 @@
       <c r="AS50" s="1"/>
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3289,7 +3410,7 @@
       <c r="AS51" s="1"/>
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3336,7 +3457,7 @@
       <c r="AS52" s="1"/>
     </row>
     <row r="53" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3383,7 +3504,7 @@
       <c r="AS53" s="1"/>
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3430,7 +3551,7 @@
       <c r="AS54" s="1"/>
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3477,7 +3598,7 @@
       <c r="AS55" s="1"/>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3524,7 +3645,7 @@
       <c r="AS56" s="1"/>
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3571,7 +3692,7 @@
       <c r="AS57" s="1"/>
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3618,7 +3739,7 @@
       <c r="AS58" s="1"/>
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3665,7 +3786,7 @@
       <c r="AS59" s="1"/>
     </row>
     <row r="60" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3712,7 +3833,7 @@
       <c r="AS60" s="1"/>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3759,7 +3880,7 @@
       <c r="AS61" s="1"/>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3806,7 +3927,7 @@
       <c r="AS62" s="1"/>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3853,7 +3974,7 @@
       <c r="AS63" s="1"/>
     </row>
     <row r="64" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3900,7 +4021,7 @@
       <c r="AS64" s="1"/>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3947,7 +4068,7 @@
       <c r="AS65" s="1"/>
     </row>
     <row r="66" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3994,7 +4115,7 @@
       <c r="AS66" s="1"/>
     </row>
     <row r="67" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4041,7 +4162,7 @@
       <c r="AS67" s="1"/>
     </row>
     <row r="68" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -4088,7 +4209,7 @@
       <c r="AS68" s="1"/>
     </row>
     <row r="69" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4135,7 +4256,7 @@
       <c r="AS69" s="1"/>
     </row>
     <row r="70" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -4182,7 +4303,7 @@
       <c r="AS70" s="1"/>
     </row>
     <row r="71" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4229,7 +4350,7 @@
       <c r="AS71" s="1"/>
     </row>
     <row r="72" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -4276,7 +4397,7 @@
       <c r="AS72" s="1"/>
     </row>
     <row r="73" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -4323,7 +4444,7 @@
       <c r="AS73" s="1"/>
     </row>
     <row r="74" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -4370,7 +4491,7 @@
       <c r="AS74" s="1"/>
     </row>
     <row r="75" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -4417,7 +4538,7 @@
       <c r="AS75" s="1"/>
     </row>
     <row r="76" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -4464,7 +4585,7 @@
       <c r="AS76" s="1"/>
     </row>
     <row r="77" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4511,7 +4632,7 @@
       <c r="AS77" s="1"/>
     </row>
     <row r="78" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4558,7 +4679,7 @@
       <c r="AS78" s="1"/>
     </row>
     <row r="79" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4605,7 +4726,7 @@
       <c r="AS79" s="1"/>
     </row>
     <row r="80" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4652,7 +4773,7 @@
       <c r="AS80" s="1"/>
     </row>
     <row r="81" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -4699,7 +4820,7 @@
       <c r="AS81" s="1"/>
     </row>
     <row r="82" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4746,7 +4867,7 @@
       <c r="AS82" s="1"/>
     </row>
     <row r="83" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4793,7 +4914,7 @@
       <c r="AS83" s="1"/>
     </row>
     <row r="84" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4840,7 +4961,7 @@
       <c r="AS84" s="1"/>
     </row>
     <row r="85" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4887,7 +5008,7 @@
       <c r="AS85" s="1"/>
     </row>
     <row r="86" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4934,7 +5055,7 @@
       <c r="AS86" s="1"/>
     </row>
     <row r="87" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4981,7 +5102,7 @@
       <c r="AS87" s="1"/>
     </row>
     <row r="88" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -5028,7 +5149,7 @@
       <c r="AS88" s="1"/>
     </row>
     <row r="89" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -5075,7 +5196,7 @@
       <c r="AS89" s="1"/>
     </row>
     <row r="90" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -5122,7 +5243,7 @@
       <c r="AS90" s="1"/>
     </row>
     <row r="91" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -5169,7 +5290,7 @@
       <c r="AS91" s="1"/>
     </row>
     <row r="92" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -5216,7 +5337,7 @@
       <c r="AS92" s="1"/>
     </row>
     <row r="93" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
+      <c r="A93" s="9"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5263,7 +5384,7 @@
       <c r="AS93" s="1"/>
     </row>
     <row r="94" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -5310,7 +5431,7 @@
       <c r="AS94" s="1"/>
     </row>
     <row r="95" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -5357,7 +5478,7 @@
       <c r="AS95" s="1"/>
     </row>
     <row r="96" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -5404,7 +5525,7 @@
       <c r="AS96" s="1"/>
     </row>
     <row r="97" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -5451,7 +5572,7 @@
       <c r="AS97" s="1"/>
     </row>
     <row r="98" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -5498,7 +5619,7 @@
       <c r="AS98" s="1"/>
     </row>
     <row r="99" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -5545,7 +5666,7 @@
       <c r="AS99" s="1"/>
     </row>
     <row r="100" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -5592,7 +5713,7 @@
       <c r="AS100" s="1"/>
     </row>
     <row r="101" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -5639,7 +5760,7 @@
       <c r="AS101" s="1"/>
     </row>
     <row r="102" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -5686,7 +5807,7 @@
       <c r="AS102" s="1"/>
     </row>
     <row r="103" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -5733,7 +5854,7 @@
       <c r="AS103" s="1"/>
     </row>
     <row r="104" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -5780,7 +5901,7 @@
       <c r="AS104" s="1"/>
     </row>
     <row r="105" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -5827,7 +5948,7 @@
       <c r="AS105" s="1"/>
     </row>
     <row r="106" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -5874,7 +5995,7 @@
       <c r="AS106" s="1"/>
     </row>
     <row r="107" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -5921,7 +6042,7 @@
       <c r="AS107" s="1"/>
     </row>
     <row r="108" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -5968,7 +6089,7 @@
       <c r="AS108" s="1"/>
     </row>
     <row r="109" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -6015,7 +6136,7 @@
       <c r="AS109" s="1"/>
     </row>
     <row r="110" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -6062,7 +6183,7 @@
       <c r="AS110" s="1"/>
     </row>
     <row r="111" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -6109,7 +6230,7 @@
       <c r="AS111" s="1"/>
     </row>
     <row r="112" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -6156,7 +6277,7 @@
       <c r="AS112" s="1"/>
     </row>
     <row r="113" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -6203,7 +6324,7 @@
       <c r="AS113" s="1"/>
     </row>
     <row r="114" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -6250,7 +6371,7 @@
       <c r="AS114" s="1"/>
     </row>
     <row r="115" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -6297,7 +6418,7 @@
       <c r="AS115" s="1"/>
     </row>
     <row r="116" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -6344,7 +6465,7 @@
       <c r="AS116" s="1"/>
     </row>
     <row r="117" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -6391,7 +6512,7 @@
       <c r="AS117" s="1"/>
     </row>
     <row r="118" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -6438,7 +6559,7 @@
       <c r="AS118" s="1"/>
     </row>
     <row r="119" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A119" s="16"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -6485,7 +6606,7 @@
       <c r="AS119" s="1"/>
     </row>
     <row r="120" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -6532,7 +6653,7 @@
       <c r="AS120" s="1"/>
     </row>
     <row r="121" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A121" s="16"/>
+      <c r="A121" s="9"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -6579,7 +6700,7 @@
       <c r="AS121" s="1"/>
     </row>
     <row r="122" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
+      <c r="A122" s="9"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -6626,7 +6747,7 @@
       <c r="AS122" s="1"/>
     </row>
     <row r="123" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A123" s="16"/>
+      <c r="A123" s="9"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -6673,7 +6794,7 @@
       <c r="AS123" s="1"/>
     </row>
     <row r="124" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
+      <c r="A124" s="9"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -6720,7 +6841,7 @@
       <c r="AS124" s="1"/>
     </row>
     <row r="125" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
+      <c r="A125" s="9"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -6767,7 +6888,7 @@
       <c r="AS125" s="1"/>
     </row>
     <row r="126" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
+      <c r="A126" s="9"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -6814,7 +6935,7 @@
       <c r="AS126" s="1"/>
     </row>
     <row r="127" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
+      <c r="A127" s="9"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -6861,7 +6982,7 @@
       <c r="AS127" s="1"/>
     </row>
     <row r="128" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
+      <c r="A128" s="9"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -6908,7 +7029,7 @@
       <c r="AS128" s="1"/>
     </row>
     <row r="129" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
+      <c r="A129" s="9"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -6955,7 +7076,7 @@
       <c r="AS129" s="1"/>
     </row>
     <row r="130" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
+      <c r="A130" s="9"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -7002,7 +7123,7 @@
       <c r="AS130" s="1"/>
     </row>
     <row r="131" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
+      <c r="A131" s="9"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -7049,7 +7170,7 @@
       <c r="AS131" s="1"/>
     </row>
     <row r="132" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A132" s="16"/>
+      <c r="A132" s="9"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -7096,7 +7217,7 @@
       <c r="AS132" s="1"/>
     </row>
     <row r="133" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A133" s="16"/>
+      <c r="A133" s="9"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -7143,7 +7264,7 @@
       <c r="AS133" s="1"/>
     </row>
     <row r="134" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
+      <c r="A134" s="9"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -7190,7 +7311,7 @@
       <c r="AS134" s="1"/>
     </row>
     <row r="135" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
+      <c r="A135" s="9"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -7237,7 +7358,7 @@
       <c r="AS135" s="1"/>
     </row>
     <row r="136" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
+      <c r="A136" s="9"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -7284,7 +7405,7 @@
       <c r="AS136" s="1"/>
     </row>
     <row r="137" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
+      <c r="A137" s="9"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -7331,7 +7452,7 @@
       <c r="AS137" s="1"/>
     </row>
     <row r="138" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
+      <c r="A138" s="9"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -7378,7 +7499,7 @@
       <c r="AS138" s="1"/>
     </row>
     <row r="139" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
+      <c r="A139" s="9"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -7425,7 +7546,7 @@
       <c r="AS139" s="1"/>
     </row>
     <row r="140" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A140" s="16"/>
+      <c r="A140" s="9"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -7472,7 +7593,7 @@
       <c r="AS140" s="1"/>
     </row>
     <row r="141" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
+      <c r="A141" s="9"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -7519,7 +7640,7 @@
       <c r="AS141" s="1"/>
     </row>
     <row r="142" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
+      <c r="A142" s="9"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -7566,7 +7687,7 @@
       <c r="AS142" s="1"/>
     </row>
     <row r="143" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
+      <c r="A143" s="9"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -7613,7 +7734,7 @@
       <c r="AS143" s="1"/>
     </row>
     <row r="144" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
+      <c r="A144" s="9"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -7660,7 +7781,7 @@
       <c r="AS144" s="1"/>
     </row>
     <row r="145" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
+      <c r="A145" s="9"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -7707,7 +7828,7 @@
       <c r="AS145" s="1"/>
     </row>
     <row r="146" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
+      <c r="A146" s="9"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -7754,7 +7875,7 @@
       <c r="AS146" s="1"/>
     </row>
     <row r="147" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
+      <c r="A147" s="9"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -7801,7 +7922,7 @@
       <c r="AS147" s="1"/>
     </row>
     <row r="148" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A148" s="16"/>
+      <c r="A148" s="9"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -7848,7 +7969,7 @@
       <c r="AS148" s="1"/>
     </row>
     <row r="149" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A149" s="16"/>
+      <c r="A149" s="9"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -7895,7 +8016,7 @@
       <c r="AS149" s="1"/>
     </row>
     <row r="150" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A150" s="16"/>
+      <c r="A150" s="9"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -7942,7 +8063,7 @@
       <c r="AS150" s="1"/>
     </row>
     <row r="151" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A151" s="16"/>
+      <c r="A151" s="9"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -7989,7 +8110,7 @@
       <c r="AS151" s="1"/>
     </row>
     <row r="152" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A152" s="16"/>
+      <c r="A152" s="9"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -8036,7 +8157,7 @@
       <c r="AS152" s="1"/>
     </row>
     <row r="153" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A153" s="16"/>
+      <c r="A153" s="9"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -8083,7 +8204,7 @@
       <c r="AS153" s="1"/>
     </row>
     <row r="154" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
+      <c r="A154" s="9"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -8130,7 +8251,7 @@
       <c r="AS154" s="1"/>
     </row>
     <row r="155" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A155" s="16"/>
+      <c r="A155" s="9"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -8177,7 +8298,7 @@
       <c r="AS155" s="1"/>
     </row>
     <row r="156" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A156" s="16"/>
+      <c r="A156" s="9"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -8224,7 +8345,7 @@
       <c r="AS156" s="1"/>
     </row>
     <row r="157" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A157" s="16"/>
+      <c r="A157" s="9"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -8271,7 +8392,7 @@
       <c r="AS157" s="1"/>
     </row>
     <row r="158" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A158" s="16"/>
+      <c r="A158" s="9"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -8318,7 +8439,7 @@
       <c r="AS158" s="1"/>
     </row>
     <row r="159" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
+      <c r="A159" s="9"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -8365,7 +8486,7 @@
       <c r="AS159" s="1"/>
     </row>
     <row r="160" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A160" s="16"/>
+      <c r="A160" s="9"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -8412,7 +8533,7 @@
       <c r="AS160" s="1"/>
     </row>
     <row r="161" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
+      <c r="A161" s="9"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -8459,7 +8580,7 @@
       <c r="AS161" s="1"/>
     </row>
     <row r="162" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A162" s="16"/>
+      <c r="A162" s="9"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -8506,7 +8627,7 @@
       <c r="AS162" s="1"/>
     </row>
     <row r="163" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
+      <c r="A163" s="9"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -8553,7 +8674,7 @@
       <c r="AS163" s="1"/>
     </row>
     <row r="164" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A164" s="16"/>
+      <c r="A164" s="9"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -8600,7 +8721,7 @@
       <c r="AS164" s="1"/>
     </row>
     <row r="165" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A165" s="16"/>
+      <c r="A165" s="9"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -8647,7 +8768,7 @@
       <c r="AS165" s="1"/>
     </row>
     <row r="166" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A166" s="16"/>
+      <c r="A166" s="9"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -8694,7 +8815,7 @@
       <c r="AS166" s="1"/>
     </row>
     <row r="167" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A167" s="16"/>
+      <c r="A167" s="9"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -8741,7 +8862,7 @@
       <c r="AS167" s="1"/>
     </row>
     <row r="168" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A168" s="16"/>
+      <c r="A168" s="9"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -8788,7 +8909,7 @@
       <c r="AS168" s="1"/>
     </row>
     <row r="169" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A169" s="16"/>
+      <c r="A169" s="9"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -8835,7 +8956,7 @@
       <c r="AS169" s="1"/>
     </row>
     <row r="170" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A170" s="16"/>
+      <c r="A170" s="9"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -8882,7 +9003,7 @@
       <c r="AS170" s="1"/>
     </row>
     <row r="171" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A171" s="16"/>
+      <c r="A171" s="9"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -8929,7 +9050,7 @@
       <c r="AS171" s="1"/>
     </row>
     <row r="172" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A172" s="16"/>
+      <c r="A172" s="9"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -8976,7 +9097,7 @@
       <c r="AS172" s="1"/>
     </row>
     <row r="173" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A173" s="16"/>
+      <c r="A173" s="9"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -9023,7 +9144,7 @@
       <c r="AS173" s="1"/>
     </row>
     <row r="174" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A174" s="16"/>
+      <c r="A174" s="9"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -9070,7 +9191,7 @@
       <c r="AS174" s="1"/>
     </row>
     <row r="175" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A175" s="16"/>
+      <c r="A175" s="9"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -9117,7 +9238,7 @@
       <c r="AS175" s="1"/>
     </row>
     <row r="176" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A176" s="16"/>
+      <c r="A176" s="9"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -9164,7 +9285,7 @@
       <c r="AS176" s="1"/>
     </row>
     <row r="177" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A177" s="16"/>
+      <c r="A177" s="9"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -9211,7 +9332,7 @@
       <c r="AS177" s="1"/>
     </row>
     <row r="178" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A178" s="16"/>
+      <c r="A178" s="9"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -9258,7 +9379,7 @@
       <c r="AS178" s="1"/>
     </row>
     <row r="179" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A179" s="16"/>
+      <c r="A179" s="9"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -9305,7 +9426,7 @@
       <c r="AS179" s="1"/>
     </row>
     <row r="180" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A180" s="16"/>
+      <c r="A180" s="9"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -9352,7 +9473,7 @@
       <c r="AS180" s="1"/>
     </row>
     <row r="181" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A181" s="16"/>
+      <c r="A181" s="9"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -9399,7 +9520,7 @@
       <c r="AS181" s="1"/>
     </row>
     <row r="182" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A182" s="16"/>
+      <c r="A182" s="9"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -9446,7 +9567,7 @@
       <c r="AS182" s="1"/>
     </row>
     <row r="183" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A183" s="16"/>
+      <c r="A183" s="9"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -9493,7 +9614,7 @@
       <c r="AS183" s="1"/>
     </row>
     <row r="184" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A184" s="16"/>
+      <c r="A184" s="9"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -9540,7 +9661,7 @@
       <c r="AS184" s="1"/>
     </row>
     <row r="185" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A185" s="16"/>
+      <c r="A185" s="9"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -9587,7 +9708,7 @@
       <c r="AS185" s="1"/>
     </row>
     <row r="186" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A186" s="16"/>
+      <c r="A186" s="9"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -9634,7 +9755,7 @@
       <c r="AS186" s="1"/>
     </row>
     <row r="187" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A187" s="16"/>
+      <c r="A187" s="9"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -9681,7 +9802,7 @@
       <c r="AS187" s="1"/>
     </row>
     <row r="188" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A188" s="16"/>
+      <c r="A188" s="9"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -9728,7 +9849,7 @@
       <c r="AS188" s="1"/>
     </row>
     <row r="189" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A189" s="16"/>
+      <c r="A189" s="9"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -9775,7 +9896,7 @@
       <c r="AS189" s="1"/>
     </row>
     <row r="190" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A190" s="16"/>
+      <c r="A190" s="9"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -9822,7 +9943,7 @@
       <c r="AS190" s="1"/>
     </row>
     <row r="191" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A191" s="16"/>
+      <c r="A191" s="9"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -9869,7 +9990,7 @@
       <c r="AS191" s="1"/>
     </row>
     <row r="192" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A192" s="16"/>
+      <c r="A192" s="9"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -9916,7 +10037,7 @@
       <c r="AS192" s="1"/>
     </row>
     <row r="193" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A193" s="16"/>
+      <c r="A193" s="9"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -9963,7 +10084,7 @@
       <c r="AS193" s="1"/>
     </row>
     <row r="194" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A194" s="16"/>
+      <c r="A194" s="9"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -10010,7 +10131,7 @@
       <c r="AS194" s="1"/>
     </row>
     <row r="195" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A195" s="16"/>
+      <c r="A195" s="9"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -10057,7 +10178,7 @@
       <c r="AS195" s="1"/>
     </row>
     <row r="196" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A196" s="16"/>
+      <c r="A196" s="9"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -10104,7 +10225,7 @@
       <c r="AS196" s="1"/>
     </row>
     <row r="197" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A197" s="16"/>
+      <c r="A197" s="9"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -10151,7 +10272,7 @@
       <c r="AS197" s="1"/>
     </row>
     <row r="198" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A198" s="16"/>
+      <c r="A198" s="9"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -10198,7 +10319,7 @@
       <c r="AS198" s="1"/>
     </row>
     <row r="199" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A199" s="16"/>
+      <c r="A199" s="9"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -10245,7 +10366,7 @@
       <c r="AS199" s="1"/>
     </row>
     <row r="200" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A200" s="16"/>
+      <c r="A200" s="9"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -10292,7 +10413,7 @@
       <c r="AS200" s="1"/>
     </row>
     <row r="201" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A201" s="16"/>
+      <c r="A201" s="9"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -10339,7 +10460,7 @@
       <c r="AS201" s="1"/>
     </row>
     <row r="202" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A202" s="16"/>
+      <c r="A202" s="9"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -10386,7 +10507,7 @@
       <c r="AS202" s="1"/>
     </row>
     <row r="203" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A203" s="16"/>
+      <c r="A203" s="9"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -10433,7 +10554,7 @@
       <c r="AS203" s="1"/>
     </row>
     <row r="204" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A204" s="16"/>
+      <c r="A204" s="9"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -10480,7 +10601,7 @@
       <c r="AS204" s="1"/>
     </row>
     <row r="205" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A205" s="16"/>
+      <c r="A205" s="9"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -10527,7 +10648,7 @@
       <c r="AS205" s="1"/>
     </row>
     <row r="206" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A206" s="16"/>
+      <c r="A206" s="9"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -10574,7 +10695,7 @@
       <c r="AS206" s="1"/>
     </row>
     <row r="207" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A207" s="16"/>
+      <c r="A207" s="9"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -10621,7 +10742,7 @@
       <c r="AS207" s="1"/>
     </row>
     <row r="208" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A208" s="16"/>
+      <c r="A208" s="9"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -10668,7 +10789,7 @@
       <c r="AS208" s="1"/>
     </row>
     <row r="209" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A209" s="16"/>
+      <c r="A209" s="9"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -10715,7 +10836,7 @@
       <c r="AS209" s="1"/>
     </row>
     <row r="210" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A210" s="16"/>
+      <c r="A210" s="9"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -10762,7 +10883,7 @@
       <c r="AS210" s="1"/>
     </row>
     <row r="211" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A211" s="16"/>
+      <c r="A211" s="9"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -10809,7 +10930,7 @@
       <c r="AS211" s="1"/>
     </row>
     <row r="212" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A212" s="16"/>
+      <c r="A212" s="9"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -10856,7 +10977,7 @@
       <c r="AS212" s="1"/>
     </row>
     <row r="213" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A213" s="16"/>
+      <c r="A213" s="9"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -10903,7 +11024,7 @@
       <c r="AS213" s="1"/>
     </row>
     <row r="214" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A214" s="16"/>
+      <c r="A214" s="9"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -10950,7 +11071,7 @@
       <c r="AS214" s="1"/>
     </row>
     <row r="215" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A215" s="16"/>
+      <c r="A215" s="9"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -10997,7 +11118,7 @@
       <c r="AS215" s="1"/>
     </row>
     <row r="216" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A216" s="16"/>
+      <c r="A216" s="9"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -11044,7 +11165,7 @@
       <c r="AS216" s="1"/>
     </row>
     <row r="217" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A217" s="16"/>
+      <c r="A217" s="9"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -11091,7 +11212,7 @@
       <c r="AS217" s="1"/>
     </row>
     <row r="218" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A218" s="16"/>
+      <c r="A218" s="9"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -11138,7 +11259,7 @@
       <c r="AS218" s="1"/>
     </row>
     <row r="219" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A219" s="16"/>
+      <c r="A219" s="9"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -11185,7 +11306,7 @@
       <c r="AS219" s="1"/>
     </row>
     <row r="220" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A220" s="16"/>
+      <c r="A220" s="9"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -11232,7 +11353,7 @@
       <c r="AS220" s="1"/>
     </row>
     <row r="221" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A221" s="16"/>
+      <c r="A221" s="9"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -11279,7 +11400,7 @@
       <c r="AS221" s="1"/>
     </row>
     <row r="222" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A222" s="16"/>
+      <c r="A222" s="9"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -11326,7 +11447,7 @@
       <c r="AS222" s="1"/>
     </row>
     <row r="223" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A223" s="16"/>
+      <c r="A223" s="9"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -11373,7 +11494,7 @@
       <c r="AS223" s="1"/>
     </row>
     <row r="224" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A224" s="16"/>
+      <c r="A224" s="9"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -11420,7 +11541,7 @@
       <c r="AS224" s="1"/>
     </row>
     <row r="225" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A225" s="16"/>
+      <c r="A225" s="9"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -11467,7 +11588,7 @@
       <c r="AS225" s="1"/>
     </row>
     <row r="226" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A226" s="16"/>
+      <c r="A226" s="9"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -11514,7 +11635,7 @@
       <c r="AS226" s="1"/>
     </row>
     <row r="227" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A227" s="16"/>
+      <c r="A227" s="9"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -11561,7 +11682,7 @@
       <c r="AS227" s="1"/>
     </row>
     <row r="228" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A228" s="16"/>
+      <c r="A228" s="9"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -11608,7 +11729,7 @@
       <c r="AS228" s="1"/>
     </row>
     <row r="229" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A229" s="16"/>
+      <c r="A229" s="9"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -11655,7 +11776,7 @@
       <c r="AS229" s="1"/>
     </row>
     <row r="230" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A230" s="16"/>
+      <c r="A230" s="9"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -11702,7 +11823,7 @@
       <c r="AS230" s="1"/>
     </row>
     <row r="231" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A231" s="16"/>
+      <c r="A231" s="9"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -11749,7 +11870,7 @@
       <c r="AS231" s="1"/>
     </row>
     <row r="232" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A232" s="16"/>
+      <c r="A232" s="9"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -11796,7 +11917,7 @@
       <c r="AS232" s="1"/>
     </row>
     <row r="233" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A233" s="16"/>
+      <c r="A233" s="9"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -11843,7 +11964,7 @@
       <c r="AS233" s="1"/>
     </row>
     <row r="234" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A234" s="16"/>
+      <c r="A234" s="9"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -11890,7 +12011,7 @@
       <c r="AS234" s="1"/>
     </row>
     <row r="235" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A235" s="16"/>
+      <c r="A235" s="9"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -11937,7 +12058,7 @@
       <c r="AS235" s="1"/>
     </row>
     <row r="236" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A236" s="16"/>
+      <c r="A236" s="9"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -11984,7 +12105,7 @@
       <c r="AS236" s="1"/>
     </row>
     <row r="237" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A237" s="16"/>
+      <c r="A237" s="9"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -12031,7 +12152,7 @@
       <c r="AS237" s="1"/>
     </row>
     <row r="238" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A238" s="16"/>
+      <c r="A238" s="9"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -12078,7 +12199,7 @@
       <c r="AS238" s="1"/>
     </row>
     <row r="239" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A239" s="16"/>
+      <c r="A239" s="9"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -12125,7 +12246,7 @@
       <c r="AS239" s="1"/>
     </row>
     <row r="240" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A240" s="16"/>
+      <c r="A240" s="9"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -12172,7 +12293,7 @@
       <c r="AS240" s="1"/>
     </row>
     <row r="241" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A241" s="16"/>
+      <c r="A241" s="9"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -12219,7 +12340,7 @@
       <c r="AS241" s="1"/>
     </row>
     <row r="242" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A242" s="16"/>
+      <c r="A242" s="9"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -12266,7 +12387,7 @@
       <c r="AS242" s="1"/>
     </row>
     <row r="243" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A243" s="16"/>
+      <c r="A243" s="9"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -12313,7 +12434,7 @@
       <c r="AS243" s="1"/>
     </row>
     <row r="244" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A244" s="16"/>
+      <c r="A244" s="9"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -12360,7 +12481,7 @@
       <c r="AS244" s="1"/>
     </row>
     <row r="245" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A245" s="16"/>
+      <c r="A245" s="9"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -12407,7 +12528,7 @@
       <c r="AS245" s="1"/>
     </row>
     <row r="246" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A246" s="16"/>
+      <c r="A246" s="9"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -12454,8 +12575,7 @@
       <c r="AS246" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="2">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:F23"/>
   </mergeCells>
